--- a/data/drinks.xlsx
+++ b/data/drinks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="121">
   <si>
     <t>WINE</t>
   </si>
@@ -372,16 +372,10 @@
     <t>WHISKY - JAPANESE</t>
   </si>
   <si>
-    <t>DRINKS</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
     <t>category</t>
-  </si>
-  <si>
-    <t>subcategory</t>
   </si>
   <si>
     <t>Vodka &amp; Tonic</t>
@@ -753,1117 +747,816 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="45" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24" style="4" customWidth="1"/>
-    <col min="3" max="3" width="54" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="2" max="2" width="54" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="17.25" customHeight="1">
+    <row r="25" spans="1:2" ht="17.25" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="16.5" thickBot="1">
+    <row r="56" spans="1:2" ht="16.5" thickBot="1">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15" customHeight="1" thickTop="1" thickBot="1">
+    <row r="57" spans="1:2" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="17.25" thickTop="1" thickBot="1">
+    <row r="59" spans="1:2" ht="17.25" thickTop="1" thickBot="1">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="17.25" thickTop="1" thickBot="1">
+    <row r="60" spans="1:2" ht="17.25" thickTop="1" thickBot="1">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="17.25" thickTop="1" thickBot="1">
+    <row r="61" spans="1:2" ht="17.25" thickTop="1" thickBot="1">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="17.25" thickTop="1" thickBot="1">
+    <row r="62" spans="1:2" ht="17.25" thickTop="1" thickBot="1">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="17.25" thickTop="1" thickBot="1">
+    <row r="63" spans="1:2" ht="17.25" thickTop="1" thickBot="1">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="17.25" thickTop="1" thickBot="1">
+    <row r="64" spans="1:2" ht="17.25" thickTop="1" thickBot="1">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="17.25" thickTop="1" thickBot="1">
+    <row r="65" spans="1:2" ht="17.25" thickTop="1" thickBot="1">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="17.25" thickTop="1" thickBot="1">
+    <row r="66" spans="1:2" ht="17.25" thickTop="1" thickBot="1">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="67" spans="1:2" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" thickTop="1">
+    <row r="68" spans="1:2" ht="15.75" customHeight="1" thickTop="1">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C72" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15" customHeight="1">
+    <row r="73" spans="1:2" ht="15" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C75" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C76" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C77" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C79" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C81" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C82" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C83" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C84" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C85" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C86" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C87" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C88" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C89" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C90" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C91" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C92" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C93" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C94" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C95" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C96" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C97" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C98" s="2" t="s">
+      <c r="B98" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C99" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C100" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>105</v>
       </c>
     </row>
